--- a/genshin/463765015229735356_2020-12-01_18-05-07.xlsx
+++ b/genshin/463765015229735356_2020-12-01_18-05-07.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-01-07 15:08:35</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44203.63096064814</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-19 17:21:47</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44184.72346064815</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -707,10 +719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-12-17 17:03:45</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44182.7109375</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -786,10 +796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-12-14 17:05:46</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44179.71233796296</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -861,10 +869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-12-14 01:13:45</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44179.05121527778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -932,10 +938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:40:33</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44177.06982638889</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1011,10 +1015,8 @@
           <t>3805024780</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-12-11 18:05:08</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44176.75356481481</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1078,10 +1080,8 @@
           <t>3771424116</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-12-11 17:23:36</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44176.72472222222</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1157,10 +1157,8 @@
           <t>3771424116</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-12-11 17:19:58</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44176.72219907407</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1236,10 +1234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-12-11 13:21:54</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44176.556875</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1315,10 +1311,8 @@
           <t>3803866192</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-12-11 11:44:54</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44176.48951388889</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1386,10 +1380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-12-10 14:51:48</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44175.61930555556</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1465,10 +1457,8 @@
           <t>3800603205</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-12-10 12:59:08</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44175.54106481482</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1544,10 +1534,8 @@
           <t>3800603205</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-12-10 12:57:53</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44175.54019675926</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1621,10 +1609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-12-10 08:47:26</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44175.36627314815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1692,10 +1678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-12-10 07:35:41</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44175.31644675926</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1763,10 +1747,8 @@
           <t>3777971860</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-12-10 00:11:33</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44175.00802083333</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1834,10 +1816,8 @@
           <t>3777971860</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-12-09 23:02:11</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44174.95984953704</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1901,10 +1881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-12-08 23:15:16</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44173.96893518518</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1972,10 +1950,8 @@
           <t>3771424116</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-12-08 13:23:07</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44173.55771990741</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2051,10 +2027,8 @@
           <t>3771424116</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-12-08 13:17:16</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44173.55365740741</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2138,10 +2112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-12-08 09:05:50</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44173.37905092593</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2206,10 +2178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-12-08 00:24:42</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44173.01715277778</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2282,10 +2252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-12-08 00:24:20</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44173.01689814815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2357,10 +2325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-12-07 22:33:39</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44172.94003472223</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2428,10 +2394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-12-07 21:02:30</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44172.87673611111</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2503,10 +2467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-12-07 21:02:24</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44172.87666666666</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2578,10 +2540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-12-07 16:59:46</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44172.7081712963</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -2657,10 +2617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-12-07 16:31:47</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44172.68873842592</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2736,10 +2694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-12-07 16:23:27</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44172.68295138889</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2807,10 +2763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-12-07 15:17:16</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44172.63699074074</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2878,10 +2832,8 @@
           <t>3774429703</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-12-07 15:12:11</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44172.63346064815</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2945,10 +2897,8 @@
           <t>3774429703</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-12-07 13:27:23</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44172.56068287037</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3016,10 +2966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-12-07 00:01:28</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44172.00101851852</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3083,10 +3031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-12-06 10:53:53</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44171.45408564815</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3154,10 +3100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-12-06 10:26:57</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44171.43538194444</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3233,10 +3177,8 @@
           <t>3777971860</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-12-04 21:48:51</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44169.90892361111</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3304,10 +3246,8 @@
           <t>3774429703</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-12-04 20:25:47</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44169.85123842592</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3371,10 +3311,8 @@
           <t>3774429703</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-12-04 19:55:12</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44169.83</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3442,10 +3380,8 @@
           <t>3777230648</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-12-04 19:40:54</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44169.82006944445</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3517,10 +3453,8 @@
           <t>3777230648</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-12-04 18:45:21</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44169.78149305555</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3588,10 +3522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-12-04 02:04:34</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44169.08650462963</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3655,10 +3587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-12-04 02:03:29</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44169.08575231482</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3722,10 +3652,8 @@
           <t>3774429703</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:18:05</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44168.88755787037</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3789,10 +3717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:40:56</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44168.69509259259</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3860,10 +3786,8 @@
           <t>3771424116</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:57:42</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44168.62340277778</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3939,10 +3863,8 @@
           <t>3773096303</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-12-03 13:39:27</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44168.5690625</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4006,10 +3928,8 @@
           <t>3771424116</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-12-03 13:26:36</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44168.56013888889</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4085,10 +4005,8 @@
           <t>3771424116</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-12-03 11:51:35</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44168.49415509259</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4164,10 +4082,8 @@
           <t>3771424116</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-12-03 09:23:15</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44168.39114583333</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4243,10 +4159,8 @@
           <t>3769905060</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-12-03 08:57:01</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44168.37292824074</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4322,10 +4236,8 @@
           <t>3771424116</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-12-03 07:08:14</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44168.29738425926</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4401,10 +4313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-12-03 02:02:30</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44168.08506944445</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4468,10 +4378,8 @@
           <t>3771424116</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-12-03 01:23:32</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44168.05800925926</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4547,10 +4455,8 @@
           <t>3771865545</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-12-03 00:16:19</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44168.01133101852</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4614,10 +4520,8 @@
           <t>3771631900</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-12-02 23:51:00</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44167.99375</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4689,10 +4593,8 @@
           <t>3771631900</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-12-02 23:33:42</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44167.98173611111</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4760,10 +4662,8 @@
           <t>3771631900</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-12-02 23:16:59</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44167.97012731482</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4835,10 +4735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-12-02 23:16:24</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44167.96972222222</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4910,10 +4808,8 @@
           <t>3771615868</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-12-02 23:12:46</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44167.96719907408</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4981,10 +4877,8 @@
           <t>3771434327</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-12-02 22:31:56</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44167.93884259259</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5056,10 +4950,8 @@
           <t>3771424116</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-12-02 22:29:39</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44167.93725694445</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5135,10 +5027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-12-02 22:26:49</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44167.93528935185</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5206,10 +5096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-12-02 22:09:57</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44167.92357638889</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5278,10 +5166,8 @@
           <t>3770082161</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-12-02 21:21:16</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44167.88976851852</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5349,10 +5235,8 @@
           <t>3771119187</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-12-02 21:09:21</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44167.88149305555</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5428,10 +5312,8 @@
           <t>3770997450</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-12-02 20:35:01</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44167.85765046296</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5495,10 +5377,8 @@
           <t>3770969723</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-12-02 20:28:41</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44167.85325231482</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5574,10 +5454,8 @@
           <t>3769901734</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-12-02 20:10:46</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44167.84081018518</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5653,10 +5531,8 @@
           <t>3770876311</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-12-02 20:01:44</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44167.83453703704</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5728,10 +5604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-12-02 19:58:41</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44167.83241898148</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5807,10 +5681,8 @@
           <t>3770423424</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-12-02 19:23:16</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44167.80782407407</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5882,10 +5754,8 @@
           <t>3770423424</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-12-02 19:13:58</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44167.80136574074</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5949,10 +5819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-12-02 19:07:47</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44167.79707175926</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6024,10 +5892,8 @@
           <t>3770423424</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-12-02 19:07:17</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44167.79672453704</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6099,10 +5965,8 @@
           <t>3770423424</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-12-02 19:03:06</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44167.79381944444</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6166,10 +6030,8 @@
           <t>3770423424</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-12-02 18:31:47</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44167.77207175926</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6229,10 +6091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-12-02 18:25:07</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44167.76744212963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6292,10 +6152,8 @@
           <t>3770464686</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-12-02 18:15:33</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44167.76079861111</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6355,10 +6213,8 @@
           <t>3770443295</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-12-02 18:10:00</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44167.75694444445</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6422,10 +6278,8 @@
           <t>3770441848</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-12-02 18:08:48</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44167.75611111111</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6489,10 +6343,8 @@
           <t>3770423424</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-12-02 18:03:03</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44167.75211805556</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6564,10 +6416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-12-02 17:42:09</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44167.73760416666</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6639,10 +6489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-12-02 16:08:39</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44167.67267361111</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6706,10 +6554,8 @@
           <t>3770078144</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-12-02 16:03:42</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44167.66923611111</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6777,10 +6623,8 @@
           <t>3770082161</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-12-02 16:03:33</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44167.66913194444</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6848,10 +6692,8 @@
           <t>3769901734</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-12-02 16:01:47</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44167.6679050926</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6911,10 +6753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-12-02 15:37:33</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44167.65107638889</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6986,10 +6826,8 @@
           <t>3769901734</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-12-02 15:16:51</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44167.63670138889</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7065,10 +6903,8 @@
           <t>3769921914</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-12-02 14:52:36</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44167.61986111111</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7128,10 +6964,8 @@
           <t>3769899514</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-12-02 14:48:08</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44167.61675925926</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7191,10 +7025,8 @@
           <t>3769898287</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-12-02 14:46:33</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44167.61565972222</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7254,10 +7086,8 @@
           <t>3769901734</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-12-02 14:45:14</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44167.61474537037</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7317,10 +7147,8 @@
           <t>3769906162</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-12-02 14:44:27</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44167.61420138889</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7380,10 +7208,8 @@
           <t>3769905060</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-12-02 14:43:00</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44167.61319444444</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7443,10 +7269,8 @@
           <t>3769883922</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-12-02 14:41:09</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44167.61190972223</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7506,10 +7330,8 @@
           <t>3769893167</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-12-02 14:40:37</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44167.61153935185</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7569,10 +7391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-12-02 14:17:33</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44167.59552083333</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7640,10 +7460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-12-02 14:13:42</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44167.59284722222</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7711,10 +7529,8 @@
           <t>3769803505</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-12-02 14:03:27</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44167.58572916667</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7778,10 +7594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-12-02 13:54:11</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44167.57929398148</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7841,10 +7655,8 @@
           <t>3769180306</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-12-02 13:18:48</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44167.55472222222</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7920,10 +7732,8 @@
           <t>3769180306</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-12-02 13:15:04</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44167.55212962963</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7983,10 +7793,8 @@
           <t>3769616036</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-12-02 12:54:57</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44167.53815972222</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8050,10 +7858,8 @@
           <t>3769615637</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-12-02 12:54:36</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44167.53791666667</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8117,10 +7923,8 @@
           <t>3769180306</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-12-02 12:39:03</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44167.52711805556</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8196,10 +8000,8 @@
           <t>3769561023</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-12-02 12:38:51</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44167.52697916667</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8271,10 +8073,8 @@
           <t>3769180306</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-12-02 12:33:41</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44167.5233912037</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8334,10 +8134,8 @@
           <t>3769529652</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-12-02 12:32:53</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44167.52283564815</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8401,10 +8199,8 @@
           <t>3769535435</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-12-02 12:31:28</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44167.52185185185</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8468,10 +8264,8 @@
           <t>3769180306</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-12-02 12:19:47</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44167.51373842593</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8547,10 +8341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-12-02 12:19:04</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44167.51324074074</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8626,10 +8418,8 @@
           <t>3769185003</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:53:06</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44167.49520833333</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8689,10 +8479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:51:40</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44167.49421296296</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8768,10 +8556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:47:14</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44167.49113425926</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8843,10 +8629,8 @@
           <t>3769375979</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:41:44</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44167.48731481482</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8924,10 +8708,8 @@
           <t>3769185003</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:39:13</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44167.48556712963</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8999,10 +8781,8 @@
           <t>3768619130</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:38:04</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44167.48476851852</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9062,10 +8842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:36:41</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44167.48380787037</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9137,10 +8915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:34:53</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44167.48255787037</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9204,10 +8980,8 @@
           <t>3769353896</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:34:46</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44167.48247685185</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9267,10 +9041,8 @@
           <t>3769352184</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:32:47</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44167.48109953704</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9330,10 +9102,8 @@
           <t>3768674991</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:25:21</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44167.4759375</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9401,10 +9171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:22:43</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44167.4741087963</v>
       </c>
       <c r="I125" t="n">
         <v>3</v>
@@ -9468,10 +9236,8 @@
           <t>3769296093</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:08:41</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44167.46436342593</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9544,10 +9310,8 @@
           <t>3769286769</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:06:56</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44167.46314814815</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9611,10 +9375,8 @@
           <t>3769290011</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:05:45</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44167.46232638889</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9686,10 +9448,8 @@
           <t>3769279129</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:04:36</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44167.46152777778</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9765,10 +9525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-12-02 11:03:21</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44167.46065972222</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9828,10 +9586,8 @@
           <t>3769265382</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:55:41</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44167.45533564815</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9907,10 +9663,8 @@
           <t>3769249575</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:51:42</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44167.45256944445</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9982,10 +9736,8 @@
           <t>3768619130</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:47:26</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44167.44960648148</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10061,10 +9813,8 @@
           <t>3769218024</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:35:24</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44167.44125</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10129,10 +9879,8 @@
           <t>3769185003</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:17:09</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44167.42857638889</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10193,10 +9941,8 @@
           <t>3769180306</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:16:46</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44167.42831018518</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10256,10 +10002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:13:40</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44167.4261574074</v>
       </c>
       <c r="I137" t="n">
         <v>2</v>
@@ -10327,10 +10071,8 @@
           <t>3769171716</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:12:41</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44167.42547453703</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10394,10 +10136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:08:39</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44167.42267361111</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10465,10 +10205,8 @@
           <t>3767994535</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:55:43</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44167.41369212963</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10544,10 +10282,8 @@
           <t>3769084652</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:31:43</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44167.39702546296</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10611,10 +10347,8 @@
           <t>3769084432</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:31:20</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44167.39675925926</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10678,10 +10412,8 @@
           <t>3769085197</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:27:29</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44167.39408564815</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10749,10 +10481,8 @@
           <t>3769081872</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:26:54</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44167.39368055556</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10816,10 +10546,8 @@
           <t>3768619130</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:24:45</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44167.3921875</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10898,10 +10626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:22:59</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44167.39096064815</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10980,10 +10706,8 @@
           <t>3769066491</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:17:24</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44167.38708333333</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11047,10 +10771,8 @@
           <t>3769047782</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:10:07</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44167.38202546296</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11116,10 +10838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:08:58</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44167.38122685185</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11195,10 +10915,8 @@
           <t>3769046796</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:08:24</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44167.38083333334</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11262,10 +10980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:07:01</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44167.37987268518</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11333,10 +11049,8 @@
           <t>3769045359</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:05:31</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44167.37883101852</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11400,10 +11114,8 @@
           <t>3769036075</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:00:21</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44167.37524305555</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11479,10 +11191,8 @@
           <t>3769036060</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:00:20</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44167.37523148148</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11550,10 +11260,8 @@
           <t>3769027819</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:00:16</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44167.37518518518</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11629,10 +11337,8 @@
           <t>3769027290</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-12-02 08:59:10</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44167.3744212963</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11696,10 +11402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-12-02 08:55:06</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44167.37159722222</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11763,10 +11467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-12-02 08:50:49</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44167.36862268519</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11834,10 +11536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-12-02 08:43:15</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44167.36336805556</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -11897,10 +11597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-12-02 08:41:05</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44167.36186342593</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11972,10 +11670,8 @@
           <t>3767867097</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-12-02 08:38:48</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44167.36027777778</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12039,10 +11735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-12-02 08:32:36</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44167.35597222222</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12114,10 +11808,8 @@
           <t>3768980997</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-12-02 08:25:03</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44167.35072916667</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12189,10 +11881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-12-02 07:51:53</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44167.32769675926</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12264,10 +11954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-12-02 07:38:54</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44167.31868055555</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12339,10 +12027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-12-02 07:14:44</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44167.30189814815</v>
       </c>
       <c r="I166" t="n">
         <v>7</v>
@@ -12410,10 +12096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-12-02 06:48:24</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44167.28361111111</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12489,10 +12173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-12-02 06:06:06</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44167.25423611111</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12556,10 +12238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-12-02 05:12:21</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44167.21690972222</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12629,10 +12309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-12-02 04:13:22</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44167.17594907407</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12701,10 +12379,8 @@
           <t>3768701952</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-12-02 02:42:33</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44167.11288194444</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12782,10 +12458,8 @@
           <t>3768741305</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-12-02 02:33:25</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44167.10653935185</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12861,10 +12535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-12-02 02:24:12</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44167.10013888889</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12936,10 +12608,8 @@
           <t>3768619130</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-12-02 02:22:16</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44167.0987962963</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13015,10 +12685,8 @@
           <t>3768726974</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-12-02 02:19:45</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44167.09704861111</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13086,10 +12754,8 @@
           <t>3768684853</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-12-02 02:15:50</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44167.0943287037</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13157,10 +12823,8 @@
           <t>3767101902</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-12-02 02:13:31</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44167.09271990741</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13224,10 +12888,8 @@
           <t>3768705641</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:59:44</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44167.08314814815</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13295,10 +12957,8 @@
           <t>3768701952</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:58:50</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44167.08252314815</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13366,10 +13026,8 @@
           <t>3768619130</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:55:06</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44167.07993055556</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
@@ -13437,10 +13095,8 @@
           <t>3768687823</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:50:14</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44167.07655092593</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13508,10 +13164,8 @@
           <t>3768684853</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:48:09</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44167.07510416667</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -13579,10 +13233,8 @@
           <t>3768674991</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:44:38</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44167.07266203704</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13650,10 +13302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:39:39</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44167.06920138889</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13732,10 +13382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:29:06</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44167.061875</v>
       </c>
       <c r="I185" t="n">
         <v>10</v>
@@ -13803,10 +13451,8 @@
           <t>3768644196</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:26:42</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44167.06020833334</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13870,10 +13516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:25:28</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44167.05935185185</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13942,10 +13586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:23:11</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44167.0577662037</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14021,10 +13663,8 @@
           <t>3768650141</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:20:15</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44167.05572916667</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14100,10 +13740,8 @@
           <t>3768631770</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:14:29</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44167.05172453704</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14175,10 +13813,8 @@
           <t>3768619130</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:11:01</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44167.04931712963</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14242,10 +13878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:06:17</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44167.04603009259</v>
       </c>
       <c r="I192" t="n">
         <v>8</v>
@@ -14317,10 +13951,8 @@
           <t>3768615306</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:05:39</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44167.04559027778</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14391,10 +14023,8 @@
           <t>3767867097</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:56:12</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44167.03902777778</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14458,10 +14088,8 @@
           <t>3768575913</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:47:48</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44167.03319444445</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14529,10 +14157,8 @@
           <t>3768567222</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:47:10</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44167.03275462963</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14596,10 +14222,8 @@
           <t>3768554632</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:44:05</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44167.03061342592</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14659,10 +14283,8 @@
           <t>3768552738</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:41:55</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44167.0291087963</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14730,10 +14352,8 @@
           <t>3768540941</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:36:00</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44167.025</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14801,10 +14421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:27:29</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44167.01908564815</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14864,10 +14482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:23:24</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44167.01625</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -14927,10 +14543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:21:34</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44167.01497685185</v>
       </c>
       <c r="I202" t="n">
         <v>4</v>
@@ -14998,10 +14612,8 @@
           <t>3768464557</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:13:42</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44167.00951388889</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15065,10 +14677,8 @@
           <t>3768228893</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:08:51</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44167.00614583334</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15132,10 +14742,8 @@
           <t>3767954220</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:08:30</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44167.00590277778</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15199,10 +14807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:08:20</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44167.00578703704</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15278,10 +14884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:03:32</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44167.0024537037</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15353,10 +14957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:56:12</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44166.99736111111</v>
       </c>
       <c r="I208" t="n">
         <v>2</v>
@@ -15425,10 +15027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:55:36</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44166.99694444444</v>
       </c>
       <c r="I209" t="n">
         <v>2</v>
@@ -15488,10 +15088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:51:09</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44166.99385416666</v>
       </c>
       <c r="I210" t="n">
         <v>4</v>
@@ -15567,10 +15165,8 @@
           <t>3768356615</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:43:18</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44166.98840277778</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15642,10 +15238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:38:01</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44166.98473379629</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15713,10 +15307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:26:30</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44166.97673611111</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15784,10 +15376,8 @@
           <t>3768281280</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:25:42</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44166.97618055555</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15859,10 +15449,8 @@
           <t>3768279626</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:24:51</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44166.97559027778</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15934,10 +15522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:24:24</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44166.97527777778</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -15997,10 +15583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:22:02</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44166.97363425926</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16064,10 +15648,8 @@
           <t>3768240894</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:15:12</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44166.96888888889</v>
       </c>
       <c r="I218" t="n">
         <v>3</v>
@@ -16131,10 +15713,8 @@
           <t>3768228893</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:13:43</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44166.9678587963</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16194,10 +15774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:13:12</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44166.9675</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16265,10 +15843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:08:43</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44166.96438657407</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16328,10 +15904,8 @@
           <t>3768216128</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:08:23</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44166.9641550926</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16407,10 +15981,8 @@
           <t>3768206342</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:08:12</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44166.96402777778</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16486,10 +16058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:06:23</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44166.9627662037</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16553,10 +16123,8 @@
           <t>3767208585</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:02:45</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44166.96024305555</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16628,10 +16196,8 @@
           <t>3768186871</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:01:55</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44166.95966435185</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16707,10 +16273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:00:10</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44166.95844907407</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16778,10 +16342,8 @@
           <t>3768144126</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:53:15</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44166.95364583333</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16857,10 +16419,8 @@
           <t>3768111909</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:53:05</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44166.95353009259</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -16936,10 +16496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:52:35</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44166.95318287037</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17004,10 +16562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:52:17</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44166.95297453704</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17081,10 +16637,8 @@
           <t>3768111909</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:51:21</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44166.95232638889</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17156,10 +16710,8 @@
           <t>3768141219</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:51:16</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44166.95226851852</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17235,10 +16787,8 @@
           <t>3767101902</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:47:23</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44166.94957175926</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17302,10 +16852,8 @@
           <t>3768114919</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:47:03</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44166.94934027778</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17381,10 +16929,8 @@
           <t>3768120516</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:46:11</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44166.94873842593</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17452,10 +16998,8 @@
           <t>3768104694</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:45:36</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44166.94833333333</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17523,10 +17067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:45:34</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44166.94831018519</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17594,10 +17136,8 @@
           <t>3768111909</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:44:57</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44166.94788194444</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17673,10 +17213,8 @@
           <t>3768108621</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:44:49</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44166.94778935185</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17750,10 +17288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:36:02</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44166.94168981481</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17821,10 +17357,8 @@
           <t>3768070098</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:35:22</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44166.94122685185</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -17900,10 +17434,8 @@
           <t>3767273526</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:34:56</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44166.94092592593</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -17975,10 +17507,8 @@
           <t>3768058364</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:34:10</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44166.94039351852</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18054,10 +17584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:33:53</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44166.94019675926</v>
       </c>
       <c r="I245" t="n">
         <v>3</v>
@@ -18129,10 +17657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:29:16</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44166.93699074074</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18208,10 +17734,8 @@
           <t>3767867097</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:29:07</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44166.93688657408</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18275,10 +17799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:24:53</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44166.93394675926</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18350,10 +17872,8 @@
           <t>3767994535</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:19:46</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44166.93039351852</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18417,10 +17937,8 @@
           <t>3767602713</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:12:33</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44166.92538194444</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18484,10 +18002,8 @@
           <t>3767954220</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:09:50</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44166.92349537037</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18559,10 +18075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:08:18</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44166.92243055555</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18626,10 +18140,8 @@
           <t>3767267001</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:06:36</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44166.92125</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18693,10 +18205,8 @@
           <t>3767938801</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:05:59</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44166.92082175926</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18768,10 +18278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:01:05</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44166.91741898148</v>
       </c>
       <c r="I255" t="n">
         <v>2</v>
@@ -18840,10 +18348,8 @@
           <t>3767901931</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:56:56</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44166.91453703704</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18919,10 +18425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:55:18</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44166.91340277778</v>
       </c>
       <c r="I257" t="n">
         <v>11</v>
@@ -18991,10 +18495,8 @@
           <t>3767267001</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:52:23</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44166.91137731481</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19062,10 +18564,8 @@
           <t>3767880850</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:49:06</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44166.90909722223</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -19129,10 +18629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:48:57</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44166.90899305556</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19196,10 +18694,8 @@
           <t>3767858215</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:46:44</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44166.9074537037</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19263,10 +18759,8 @@
           <t>3767867097</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:46:06</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44166.90701388889</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19330,10 +18824,8 @@
           <t>3767382007</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:46:04</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44166.90699074074</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19409,10 +18901,8 @@
           <t>3767720504</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:46:00</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44166.90694444445</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19480,10 +18970,8 @@
           <t>3767866485</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:45:36</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44166.90666666667</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19547,10 +19035,8 @@
           <t>3767602713</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:44:30</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44166.90590277778</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19614,10 +19100,8 @@
           <t>3767382007</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:43:10</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44166.90497685185</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19681,10 +19165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:42:36</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44166.90458333334</v>
       </c>
       <c r="I268" t="n">
         <v>2</v>
@@ -19748,10 +19230,8 @@
           <t>3767062983</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:41:52</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44166.90407407407</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -19827,10 +19307,8 @@
           <t>3767823648</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:35:24</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44166.89958333333</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19906,10 +19384,8 @@
           <t>3767720504</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:34:08</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44166.8987037037</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -19973,10 +19449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:34:06</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44166.89868055555</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20036,10 +19510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:33:30</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44166.89826388889</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20117,10 +19589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:29:10</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44166.89525462963</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20184,10 +19654,8 @@
           <t>3767783961</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:27:39</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44166.89420138889</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20263,10 +19731,8 @@
           <t>3767787559</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:26:42</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44166.89354166666</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20338,10 +19804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:20:06</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44166.88895833334</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20417,10 +19881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:17:28</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44166.88712962963</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20488,10 +19950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:15:14</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44166.8855787037</v>
       </c>
       <c r="I279" t="n">
         <v>2</v>
@@ -20555,10 +20015,8 @@
           <t>3767740278</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:13:07</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44166.88410879629</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20626,10 +20084,8 @@
           <t>3767728971</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:12:04</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44166.88337962963</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20705,10 +20161,8 @@
           <t>3767720504</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:08:50</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44166.88113425926</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20776,10 +20230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:06:47</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44166.87971064815</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -20851,10 +20303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:06:23</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44166.87943287037</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -20925,10 +20375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:03:13</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44166.87723379629</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -20992,10 +20440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:03:03</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44166.87711805556</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21059,10 +20505,8 @@
           <t>3767269963</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:53:31</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44166.87049768519</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21138,10 +20582,8 @@
           <t>3767184717</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:52:58</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44166.87011574074</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21217,10 +20659,8 @@
           <t>3767280165</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:52:37</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44166.86987268519</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21296,10 +20736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:50:22</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44166.86831018519</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21359,10 +20797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:49:20</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44166.86759259259</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21422,10 +20858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:45:00</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44166.86458333334</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21493,10 +20927,8 @@
           <t>3767101902</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:43:29</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44166.8635300926</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21564,10 +20996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:42:59</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44166.86318287037</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21635,10 +21065,8 @@
           <t>3767622534</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:42:25</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44166.86278935185</v>
       </c>
       <c r="I295" t="n">
         <v>3</v>
@@ -21714,10 +21142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:39:53</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44166.86103009259</v>
       </c>
       <c r="I296" t="n">
         <v>2</v>
@@ -21781,10 +21207,8 @@
           <t>3767101902</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:38:05</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44166.85978009259</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21856,10 +21280,8 @@
           <t>3767602713</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:37:59</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44166.85971064815</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -21923,10 +21345,8 @@
           <t>3767267001</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:32:27</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44166.85586805556</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22002,10 +21422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:31:59</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44166.85554398148</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22077,10 +21495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:31:47</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44166.8554050926</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22152,10 +21568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:31:41</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44166.85533564815</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22227,10 +21641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:28:22</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44166.85303240741</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22302,10 +21714,8 @@
           <t>3767267001</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:25:02</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44166.85071759259</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22377,10 +21787,8 @@
           <t>3767209677</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:24:56</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44166.85064814815</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22452,10 +21860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:22:53</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44166.84922453704</v>
       </c>
       <c r="I306" t="n">
         <v>11</v>
@@ -22523,10 +21929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:22:26</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44166.84891203704</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22586,10 +21990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:20:59</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44166.8479050926</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22653,10 +22055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:19:29</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44166.84686342593</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22728,10 +22128,8 @@
           <t>3767267001</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:17:48</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44166.84569444445</v>
       </c>
       <c r="I310" t="n">
         <v>2</v>
@@ -22795,10 +22193,8 @@
           <t>3767528174</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:17:45</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44166.84565972222</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -22870,10 +22266,8 @@
           <t>3767522019</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:14:18</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44166.84326388889</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -22945,10 +22339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:12:04</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44166.84171296296</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23020,10 +22412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:10:49</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44166.8408449074</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23087,10 +22477,8 @@
           <t>3767502965</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:09:36</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44166.84</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23166,10 +22554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:09:13</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44166.8397337963</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23245,10 +22631,8 @@
           <t>3767501797</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:08:38</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44166.8393287037</v>
       </c>
       <c r="I317" t="n">
         <v>5</v>
@@ -23324,10 +22708,8 @@
           <t>3767496492</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:07:57</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44166.83885416666</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23387,10 +22769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:06:49</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44166.83806712963</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23462,10 +22842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:06:01</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44166.83751157407</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23541,10 +22919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:05:25</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44166.83709490741</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23612,10 +22988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:04:19</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44166.83633101852</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23679,10 +23053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:03:01</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44166.83542824074</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23754,10 +23126,8 @@
           <t>3767472302</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:00:52</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44166.83393518518</v>
       </c>
       <c r="I324" t="n">
         <v>2</v>
@@ -23833,10 +23203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:59:52</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44166.83324074074</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23915,10 +23283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:58:25</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44166.8322337963</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -23990,10 +23356,8 @@
           <t>3767453493</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:57:19</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44166.83146990741</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24069,10 +23433,8 @@
           <t>3767456262</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:56:03</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44166.83059027778</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24148,10 +23510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:55:48</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44166.83041666666</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24219,10 +23579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:54:06</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44166.82923611111</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24286,10 +23644,8 @@
           <t>3767443556</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:53:46</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44166.82900462963</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24365,10 +23721,8 @@
           <t>3767446485</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:53:29</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44166.82880787037</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24444,10 +23798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:53:14</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44166.82863425926</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24523,10 +23875,8 @@
           <t>3767280165</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:52:19</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44166.82799768518</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24594,10 +23944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:49:54</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44166.82631944444</v>
       </c>
       <c r="I335" t="n">
         <v>2</v>
@@ -24673,10 +24021,8 @@
           <t>3767428420</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:49:32</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44166.82606481481</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24748,10 +24094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:43:50</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44166.82210648148</v>
       </c>
       <c r="I337" t="n">
         <v>2</v>
@@ -24819,10 +24163,8 @@
           <t>3767404491</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:43:46</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44166.82206018519</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -24894,10 +24236,8 @@
           <t>3767404251</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:43:34</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44166.82192129629</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24965,10 +24305,8 @@
           <t>3767280069</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:43:09</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44166.82163194445</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25032,10 +24370,8 @@
           <t>3767402490</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:42:10</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44166.82094907408</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25099,10 +24435,8 @@
           <t>3767392908</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:40:34</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44166.81983796296</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25178,10 +24512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:39:43</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44166.81924768518</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25249,10 +24581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:39:14</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44166.81891203704</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25324,10 +24654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:38:42</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44166.81854166667</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25403,10 +24731,8 @@
           <t>3767386674</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:37:31</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44166.81771990741</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25478,10 +24804,8 @@
           <t>3767382516</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:36:31</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44166.81702546297</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25549,10 +24873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:36:07</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44166.81674768519</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25629,10 +24951,8 @@
           <t>3767382007</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:36:06</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44166.81673611111</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25708,10 +25028,8 @@
           <t>3767376836</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:35:34</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44166.81636574074</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25787,10 +25105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:31:47</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44166.81373842592</v>
       </c>
       <c r="I351" t="n">
         <v>2</v>
@@ -25854,10 +25170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:30:32</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44166.81287037037</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25929,10 +25243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:30:00</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44166.8125</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26000,10 +25312,8 @@
           <t>3767356587</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:29:18</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44166.81201388889</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26075,10 +25385,8 @@
           <t>3767273526</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:29:09</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44166.81190972222</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26154,10 +25462,8 @@
           <t>3767334984</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:25:46</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44166.80956018518</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26222,10 +25528,8 @@
           <t>3767101902</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:25:00</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44166.80902777778</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26289,10 +25593,8 @@
           <t>3767267001</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:24:54</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44166.80895833333</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26365,10 +25667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:24:23</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44166.80859953703</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26440,10 +25740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:23:49</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44166.80820601852</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26519,10 +25817,8 @@
           <t>3767235462</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:23:36</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44166.80805555556</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26586,10 +25882,8 @@
           <t>3767327180</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:21:45</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44166.80677083333</v>
       </c>
       <c r="I362" t="n">
         <v>2</v>
@@ -26663,10 +25957,8 @@
           <t>3767326564</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:21:17</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44166.80644675926</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26734,10 +26026,8 @@
           <t>3767299392</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:20:50</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44166.80613425926</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26801,10 +26091,8 @@
           <t>3767101902</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:20:39</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44166.80600694445</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26868,10 +26156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:19:49</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44166.80542824074</v>
       </c>
       <c r="I366" t="n">
         <v>2</v>
@@ -26947,10 +26233,8 @@
           <t>3767062983</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:18:49</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44166.8047337963</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27014,10 +26298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:18:45</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44166.8046875</v>
       </c>
       <c r="I368" t="n">
         <v>10</v>
@@ -27081,10 +26363,8 @@
           <t>3767313358</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:18:39</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44166.80461805555</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27152,10 +26432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:17:39</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44166.80392361111</v>
       </c>
       <c r="I370" t="n">
         <v>2</v>
@@ -27219,10 +26497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:17:09</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44166.80357638889</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27290,10 +26566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:17:09</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44166.80357638889</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27361,10 +26635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:16:29</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44166.80311342593</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27440,10 +26712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:16:18</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44166.80298611111</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27515,10 +26785,8 @@
           <t>3767310342</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:16:18</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44166.80298611111</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27586,10 +26854,8 @@
           <t>3767310070</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:16:06</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44166.80284722222</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27665,10 +26931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:15:26</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44166.80238425926</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27736,10 +27000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:15:22</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44166.80233796296</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -27807,10 +27069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:15:19</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44166.80230324074</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27882,10 +27142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:14:49</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44166.80195601852</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27957,10 +27215,8 @@
           <t>3767295595</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:12:30</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44166.80034722222</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28028,10 +27284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:12:16</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44166.80018518519</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28095,10 +27349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:12:04</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44166.8000462963</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28166,10 +27418,8 @@
           <t>3767291971</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:11:44</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44166.79981481482</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28245,10 +27495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:11:41</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44166.7997800926</v>
       </c>
       <c r="I385" t="n">
         <v>3</v>
@@ -28316,10 +27564,8 @@
           <t>3767287395</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:11:41</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44166.7997800926</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28391,10 +27637,8 @@
           <t>3767286158</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:10:44</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44166.79912037037</v>
       </c>
       <c r="I387" t="n">
         <v>51</v>
@@ -28470,10 +27714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:10:04</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44166.79865740741</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28537,10 +27779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:09:57</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44166.79857638889</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28610,10 +27850,8 @@
           <t>3767273526</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:09:32</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44166.79828703704</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28681,10 +27919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:09:26</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44166.79821759259</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28752,10 +27988,8 @@
           <t>3767273526</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:08:37</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44166.79765046296</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28831,10 +28065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:08:25</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44166.79751157408</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -28898,10 +28130,8 @@
           <t>3767280165</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:08:10</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44166.79733796296</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -28969,10 +28199,8 @@
           <t>3767277412</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:08:07</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44166.79730324074</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29048,10 +28276,8 @@
           <t>3767280069</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:08:06</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44166.79729166667</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29119,10 +28345,8 @@
           <t>3767101902</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:08:04</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44166.79726851852</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29194,10 +28418,8 @@
           <t>3767269963</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:08:01</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44166.79723379629</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29273,10 +28495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:07:28</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44166.79685185185</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29348,10 +28568,8 @@
           <t>3767276094</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:07:09</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44166.79663194445</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29419,10 +28637,8 @@
           <t>3767275789</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:06:55</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44166.79646990741</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29490,10 +28706,8 @@
           <t>3767267001</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:06:38</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44166.79627314815</v>
       </c>
       <c r="I402" t="n">
         <v>11</v>
@@ -29569,10 +28783,8 @@
           <t>3767101902</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:06:35</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44166.79623842592</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29644,10 +28856,8 @@
           <t>3767267001</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:05:42</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44166.795625</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29715,10 +28925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:05:05</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44166.79519675926</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29794,10 +29002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:03:46</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44166.79428240741</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29865,10 +29071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:03:35</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44166.79415509259</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -29936,10 +29140,8 @@
           <t>3767261408</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:03:34</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44166.79414351852</v>
       </c>
       <c r="I408" t="n">
         <v>11</v>
@@ -30003,10 +29205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:02:42</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44166.79354166667</v>
       </c>
       <c r="I409" t="n">
         <v>6</v>
@@ -30078,10 +29278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:02:19</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44166.79327546297</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30149,10 +29347,8 @@
           <t>3767244321</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:01:24</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44166.79263888889</v>
       </c>
       <c r="I411" t="n">
         <v>11</v>
@@ -30228,10 +29424,8 @@
           <t>3767244189</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:01:17</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44166.79255787037</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30299,10 +29493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:00:17</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44166.79186342593</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30375,10 +29567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:59:57</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44166.79163194444</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30450,10 +29640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:59:22</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44166.79122685185</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30529,10 +29717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:58:39</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44166.79072916666</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -30608,10 +29794,8 @@
           <t>3767234277</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:57:57</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44166.79024305556</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -30687,10 +29871,8 @@
           <t>3767234220</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:57:54</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44166.79020833333</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30766,10 +29948,8 @@
           <t>3767229878</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:57:52</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44166.79018518519</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -30838,10 +30018,8 @@
           <t>3767229503</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:57:34</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44166.78997685185</v>
       </c>
       <c r="I420" t="n">
         <v>3</v>
@@ -30909,10 +30087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:57:09</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44166.7896875</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -30988,10 +30164,8 @@
           <t>3767235462</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:56:44</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44166.78939814815</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31067,10 +30241,8 @@
           <t>3767235470</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:56:44</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44166.78939814815</v>
       </c>
       <c r="I423" t="n">
         <v>31</v>
@@ -31134,10 +30306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:56:31</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44166.78924768518</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31213,10 +30383,8 @@
           <t>3767235215</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:56:31</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44166.78924768518</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31280,10 +30448,8 @@
           <t>3767227998</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:56:24</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44166.78916666667</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31352,10 +30518,8 @@
           <t>3767100043</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:53:26</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44166.78710648148</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31427,10 +30591,8 @@
           <t>3767209677</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:52:06</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44166.78618055556</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31506,10 +30668,8 @@
           <t>3767208585</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:51:14</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44166.7855787037</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31573,10 +30733,8 @@
           <t>3767215789</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:51:13</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44166.78556712963</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31648,10 +30806,8 @@
           <t>3767062983</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:50:22</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44166.78497685185</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31723,10 +30879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:49:55</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44166.78466435185</v>
       </c>
       <c r="I432" t="n">
         <v>40</v>
@@ -31794,10 +30948,8 @@
           <t>3767203975</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:49:47</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44166.78457175926</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31861,10 +31013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:49:00</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44166.78402777778</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31928,10 +31078,8 @@
           <t>3767093794</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:48:18</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44166.78354166666</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32003,10 +31151,8 @@
           <t>3767202107</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:48:17</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44166.78353009259</v>
       </c>
       <c r="I436" t="n">
         <v>4</v>
@@ -32070,10 +31216,8 @@
           <t>3767202043</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:48:13</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44166.78348379629</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32137,10 +31281,8 @@
           <t>3767093794</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:47:37</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44166.78306712963</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32212,10 +31354,8 @@
           <t>3767189630</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:46:18</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44166.78215277778</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32291,10 +31431,8 @@
           <t>3767184717</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:45:46</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44166.78178240741</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32366,10 +31504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:44:23</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44166.78082175926</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32433,10 +31569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:44:14</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44166.78071759259</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32512,10 +31646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:43:32</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44166.78023148148</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32579,10 +31711,8 @@
           <t>3767181534</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:43:14</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44166.78002314815</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -32654,10 +31784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:41:03</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44166.77850694444</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32729,10 +31857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:40:51</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44166.77836805556</v>
       </c>
       <c r="I446" t="n">
         <v>4</v>
@@ -32796,10 +31922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:40:35</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44166.77818287037</v>
       </c>
       <c r="I447" t="n">
         <v>2</v>
@@ -32871,10 +31995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:40:24</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44166.77805555556</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32950,10 +32072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:40:12</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44166.77791666667</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33017,10 +32137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:39:20</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44166.77731481481</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33092,10 +32210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:38:56</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44166.77703703703</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33164,10 +32280,8 @@
           <t>3767170378</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:38:54</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44166.77701388889</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33231,10 +32345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:38:44</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44166.77689814815</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33306,10 +32418,8 @@
           <t>3767165485</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:38:17</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44166.77658564815</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33377,10 +32487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:38:05</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44166.77644675926</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33456,10 +32564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:38:00</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44166.77638888889</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -33535,10 +32641,8 @@
           <t>3767093794</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:38:00</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44166.77638888889</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33606,10 +32710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:37:50</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44166.77627314815</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33681,10 +32783,8 @@
           <t>3767161531</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:37:38</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44166.77613425926</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -33748,10 +32848,8 @@
           <t>3767093794</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:37:34</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44166.77608796296</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33819,10 +32917,8 @@
           <t>3767093794</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:37:01</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44166.77570601852</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33894,10 +32990,8 @@
           <t>3767158011</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:37:01</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44166.77570601852</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33973,10 +33067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:36:21</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44166.77524305556</v>
       </c>
       <c r="I463" t="n">
         <v>3</v>
@@ -34040,10 +33132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:35:37</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44166.77473379629</v>
       </c>
       <c r="I464" t="n">
         <v>40</v>
@@ -34115,10 +33205,8 @@
           <t>3767151687</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:35:18</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44166.77451388889</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34190,10 +33278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:35:14</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44166.77446759259</v>
       </c>
       <c r="I466" t="n">
         <v>8</v>
@@ -34257,10 +33343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:34:50</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44166.77418981482</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34332,10 +33416,8 @@
           <t>3767093794</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:34:38</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44166.77405092592</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34407,10 +33489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:34:20</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44166.77384259259</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34486,10 +33566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:33:52</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44166.77351851852</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34557,10 +33635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:33:45</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44166.7734375</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34632,10 +33708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:33:45</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44166.7734375</v>
       </c>
       <c r="I472" t="n">
         <v>3</v>
@@ -34711,10 +33785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:33:44</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44166.77342592592</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34790,10 +33862,8 @@
           <t>3767145937</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:33:14</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44166.77307870371</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34861,10 +33931,8 @@
           <t>3767139139</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:33:14</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44166.77307870371</v>
       </c>
       <c r="I475" t="n">
         <v>2</v>
@@ -34940,10 +34008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:31:56</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44166.77217592593</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35019,10 +34085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:31:51</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44166.77211805555</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35100,10 +34164,8 @@
           <t>3767141168</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:31:38</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44166.77196759259</v>
       </c>
       <c r="I478" t="n">
         <v>2</v>
@@ -35175,10 +34237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:31:32</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44166.77189814814</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35254,10 +34314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:31:26</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44166.77182870371</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35329,10 +34387,8 @@
           <t>3767133366</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:31:16</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44166.77171296296</v>
       </c>
       <c r="I481" t="n">
         <v>6</v>
@@ -35408,10 +34464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:31:02</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44166.77155092593</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35475,10 +34529,8 @@
           <t>3767132910</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:30:55</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44166.77146990741</v>
       </c>
       <c r="I483" t="n">
         <v>1</v>
@@ -35542,10 +34594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:30:16</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44166.77101851852</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35613,10 +34663,8 @@
           <t>3767123510</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:30:15</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44166.77100694444</v>
       </c>
       <c r="I485" t="n">
         <v>1</v>
@@ -35680,10 +34728,8 @@
           <t>3767101902</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:29:41</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44166.77061342593</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35752,10 +34798,8 @@
           <t>3767101902</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:28:45</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44166.76996527778</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35819,10 +34863,8 @@
           <t>3767123510</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:28:44</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44166.7699537037</v>
       </c>
       <c r="I488" t="n">
         <v>2</v>
@@ -35898,10 +34940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:28:12</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44166.76958333333</v>
       </c>
       <c r="I489" t="n">
         <v>2</v>
@@ -35969,10 +35009,8 @@
           <t>3767126657</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:28:05</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44166.76950231481</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -36050,10 +35088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:27:55</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44166.76938657407</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36129,10 +35165,8 @@
           <t>3767118865</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:27:43</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44166.76924768519</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36200,10 +35234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:27:40</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44166.76921296296</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36275,10 +35307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:27:38</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44166.76918981481</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36346,10 +35376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:26:44</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44166.76856481482</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36421,10 +35449,8 @@
           <t>3767101902</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:26:07</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44166.76813657407</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36492,10 +35518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:25:59</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44166.76804398148</v>
       </c>
       <c r="I497" t="n">
         <v>1</v>
@@ -36571,10 +35595,8 @@
           <t>3767093794</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:25:52</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44166.76796296296</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36650,10 +35672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:25:18</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44166.76756944445</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36721,10 +35741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:25:16</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44166.76754629629</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36788,10 +35806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:24:55</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44166.76730324074</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36867,10 +35883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:24:50</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44166.76724537037</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36946,10 +35960,8 @@
           <t>3767115201</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:24:47</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44166.76721064815</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37017,10 +36029,8 @@
           <t>3767104843</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:24:30</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44166.76701388889</v>
       </c>
       <c r="I504" t="n">
         <v>3</v>
@@ -37092,10 +36102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:24:21</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44166.76690972222</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37171,10 +36179,8 @@
           <t>3767104612</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:24:18</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44166.766875</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37246,10 +36252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:24:05</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44166.76672453704</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37317,10 +36321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:23:59</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44166.76665509259</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37392,10 +36394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:23:38</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44166.76641203704</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37467,10 +36467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:23:33</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44166.76635416667</v>
       </c>
       <c r="I510" t="n">
         <v>2</v>
@@ -37534,10 +36532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:23:22</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44166.76622685185</v>
       </c>
       <c r="I511" t="n">
         <v>35</v>
@@ -37605,10 +36601,8 @@
           <t>3767077560</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:23:11</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44166.76609953704</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37680,10 +36674,8 @@
           <t>3767106611</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:23:09</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44166.76607638889</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37751,10 +36743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:23:03</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44166.76600694445</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37814,10 +36804,8 @@
           <t>3767103058</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:23:01</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44166.76598379629</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37885,10 +36873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:23:00</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44166.76597222222</v>
       </c>
       <c r="I516" t="n">
         <v>8</v>
@@ -37960,10 +36946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:22:57</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44166.7659375</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38023,10 +37007,8 @@
           <t>3767099818</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:22:29</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44166.76561342592</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38094,10 +37076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:22:17</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44166.76547453704</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38173,10 +37153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:22:09</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44166.76538194445</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38244,10 +37222,8 @@
           <t>3767101902</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:22:03</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44166.7653125</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38316,10 +37292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:21:58</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44166.76525462963</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38383,10 +37357,8 @@
           <t>3767101542</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:21:45</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44166.76510416667</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38450,10 +37422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:21:01</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44166.76459490741</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -38525,10 +37495,8 @@
           <t>3767100524</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:20:56</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44166.76453703704</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38604,10 +37572,8 @@
           <t>3767093794</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:20:52</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44166.76449074074</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38675,10 +37641,8 @@
           <t>3767062983</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:20:52</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44166.76449074074</v>
       </c>
       <c r="I527" t="n">
         <v>1</v>
@@ -38750,10 +37714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:20:34</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44166.76428240741</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38829,10 +37791,8 @@
           <t>3767100043</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:20:33</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44166.76427083334</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38892,10 +37852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:20:05</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44166.76394675926</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38963,10 +37921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:19:55</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44166.76383101852</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39035,10 +37991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:19:52</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44166.7637962963</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39114,10 +38068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:19:42</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44166.76368055555</v>
       </c>
       <c r="I533" t="n">
         <v>2</v>
@@ -39193,10 +38145,8 @@
           <t>3767062983</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:19:25</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44166.7634837963</v>
       </c>
       <c r="I534" t="n">
         <v>43</v>
@@ -39268,10 +38218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:19:16</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44166.76337962963</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39339,10 +38287,8 @@
           <t>3767077560</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:18:46</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44166.76303240741</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39406,10 +38352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:18:26</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44166.76280092593</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39477,10 +38421,8 @@
           <t>3767084709</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:18:19</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44166.7627199074</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39552,10 +38494,8 @@
           <t>3767086786</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:17:53</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44166.76241898148</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39631,10 +38571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:17:44</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44166.76231481481</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39694,10 +38632,8 @@
           <t>3767076659</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:17:39</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44166.76225694444</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39761,10 +38697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:17:35</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44166.76221064815</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39828,10 +38762,8 @@
           <t>3767079520</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:17:22</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44166.76206018519</v>
       </c>
       <c r="I543" t="n">
         <v>2</v>
@@ -39899,10 +38831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:17:15</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44166.76197916667</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -39970,10 +38900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:17:11</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44166.76193287037</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40041,10 +38969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:17:03</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44166.76184027778</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40108,10 +39034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:16:51</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44166.76170138889</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40179,10 +39103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:16:09</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44166.76121527778</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40254,10 +39176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:15:58</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44166.76108796296</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40317,10 +39237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:15:46</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44166.76094907407</v>
       </c>
       <c r="I550" t="n">
         <v>18</v>
@@ -40392,10 +39310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:15:45</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44166.7609375</v>
       </c>
       <c r="I551" t="n">
         <v>2</v>
@@ -40467,10 +39383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:15:42</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44166.76090277778</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40546,10 +39460,8 @@
           <t>3767077560</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:15:42</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44166.76090277778</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -40625,10 +39537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:15:34</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44166.76081018519</v>
       </c>
       <c r="I554" t="n">
         <v>314</v>
@@ -40700,10 +39610,8 @@
           <t>3767077015</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:15:15</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44166.76059027778</v>
       </c>
       <c r="I555" t="n">
         <v>14</v>
@@ -40767,10 +39675,8 @@
           <t>3767073335</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:15:00</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44166.76041666666</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -40842,10 +39748,8 @@
           <t>3767076659</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:14:57</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44166.76038194444</v>
       </c>
       <c r="I557" t="n">
         <v>8</v>
@@ -40913,10 +39817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:14:54</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44166.76034722223</v>
       </c>
       <c r="I558" t="n">
         <v>5</v>
@@ -40992,10 +39894,8 @@
           <t>3767076459</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:14:47</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44166.7602662037</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41067,10 +39967,8 @@
           <t>3767076117</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:14:30</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44166.76006944444</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41142,10 +40040,8 @@
           <t>3767072607</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:14:25</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44166.76001157407</v>
       </c>
       <c r="I561" t="n">
         <v>1</v>
@@ -41217,10 +40113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:14:22</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44166.75997685185</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41288,10 +40182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:14:16</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44166.75990740741</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41355,10 +40247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:14:04</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44166.75976851852</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41430,10 +40320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:13:50</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44166.75960648148</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41501,10 +40389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:13:47</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44166.75957175926</v>
       </c>
       <c r="I566" t="n">
         <v>1</v>
@@ -41576,10 +40462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:13:32</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44166.75939814815</v>
       </c>
       <c r="I567" t="n">
         <v>14</v>
@@ -41643,10 +40527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:13:26</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44166.7593287037</v>
       </c>
       <c r="I568" t="n">
         <v>1</v>
@@ -41722,10 +40604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:13:24</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44166.75930555556</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41793,10 +40673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:13:22</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44166.75928240741</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41872,10 +40750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:13:21</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44166.75927083333</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -41943,10 +40819,8 @@
           <t>3767062983</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:13:20</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44166.75925925926</v>
       </c>
       <c r="I572" t="n">
         <v>31</v>
@@ -42022,10 +40896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:13:03</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44166.7590625</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42101,10 +40973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:13:02</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44166.75905092592</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42176,10 +41046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:13:00</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44166.75902777778</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42243,10 +41111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:12:33</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44166.75871527778</v>
       </c>
       <c r="I576" t="n">
         <v>1</v>
@@ -42319,10 +41185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:12:33</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44166.75871527778</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42390,10 +41254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:12:27</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44166.75864583333</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42457,10 +41319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:12:14</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44166.75849537037</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42524,10 +41384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:12:06</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44166.75840277778</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42595,10 +41453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:12:04</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44166.75837962963</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42674,10 +41530,8 @@
           <t>3767062983</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:11:53</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44166.75825231482</v>
       </c>
       <c r="I582" t="n">
         <v>6</v>
@@ -42741,10 +41595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:11:36</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44166.75805555555</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -42812,10 +41664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:11:32</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44166.75800925926</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -42883,10 +41733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:10:53</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44166.75755787037</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -42950,10 +41798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:10:51</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44166.75753472222</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43021,10 +41867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:10:42</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44166.75743055555</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43092,10 +41936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:10:29</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44166.75728009259</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43163,10 +42005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:10:21</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44166.7571875</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43234,10 +42074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:10:14</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44166.75710648148</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43310,10 +42148,8 @@
           <t>3767060995</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:10:11</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44166.75707175926</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43381,10 +42217,8 @@
           <t>3767054787</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:10:09</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44166.75704861111</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43452,10 +42286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:10:01</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44166.75695601852</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43523,10 +42355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:09:57</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44166.75690972222</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43590,10 +42420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:09:49</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44166.75681712963</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43669,10 +42497,8 @@
           <t>3767057053</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:09:42</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44166.75673611111</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -43736,10 +42562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:09:40</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44166.75671296296</v>
       </c>
       <c r="I597" t="n">
         <v>70</v>
@@ -43815,10 +42639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:09:36</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44166.75666666667</v>
       </c>
       <c r="I598" t="n">
         <v>12</v>
@@ -43886,10 +42708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:09:31</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44166.7566087963</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -43957,10 +42777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:09:29</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44166.75658564815</v>
       </c>
       <c r="I600" t="n">
         <v>2</v>
@@ -44036,10 +42854,8 @@
           <t>3767053301</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:08:54</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44166.75618055555</v>
       </c>
       <c r="I601" t="n">
         <v>3</v>
@@ -44103,10 +42919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:08:53</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44166.75616898148</v>
       </c>
       <c r="I602" t="n">
         <v>35</v>
@@ -44170,10 +42984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:08:50</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44166.75613425926</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44237,10 +43049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:08:45</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44166.75607638889</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44304,10 +43114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:08:00</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44166.75555555556</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44375,10 +43183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:07:56</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44166.75550925926</v>
       </c>
       <c r="I606" t="n">
         <v>73</v>
@@ -44442,10 +43248,8 @@
           <t>3767052141</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:07:56</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44166.75550925926</v>
       </c>
       <c r="I607" t="n">
         <v>5</v>
@@ -44521,10 +43325,8 @@
           <t>3767047910</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:07:33</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44166.75524305556</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44600,10 +43402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:07:09</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44166.75496527777</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44675,10 +43475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:58</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44166.75483796297</v>
       </c>
       <c r="I610" t="n">
         <v>1</v>
@@ -44754,10 +43552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:49</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44166.7547337963</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -44829,10 +43625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:44</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44166.75467592593</v>
       </c>
       <c r="I612" t="n">
         <v>151</v>
@@ -44896,10 +43690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:43</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44166.75466435185</v>
       </c>
       <c r="I613" t="n">
         <v>2</v>
@@ -44963,10 +43755,8 @@
           <t>3767050569</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:40</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44166.75462962963</v>
       </c>
       <c r="I614" t="n">
         <v>2</v>
@@ -45042,10 +43832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:36</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44166.75458333334</v>
       </c>
       <c r="I615" t="n">
         <v>869</v>
@@ -45122,10 +43910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:33</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44166.75454861111</v>
       </c>
       <c r="I616" t="n">
         <v>18</v>
@@ -45189,10 +43975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:32</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44166.75453703704</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45260,10 +44044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:19</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44166.75438657407</v>
       </c>
       <c r="I618" t="n">
         <v>456</v>
@@ -45327,10 +44109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:15</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44166.75434027778</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45406,10 +44186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:10</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44166.7542824074</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45477,10 +44255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:06</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44166.75423611111</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45544,10 +44320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:57</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44166.75413194444</v>
       </c>
       <c r="I622" t="n">
         <v>3</v>
@@ -45623,10 +44397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:54</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44166.75409722222</v>
       </c>
       <c r="I623" t="n">
         <v>92</v>
@@ -45694,10 +44466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:51</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44166.7540625</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -45765,10 +44535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:50</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44166.75405092593</v>
       </c>
       <c r="I625" t="n">
         <v>1</v>
@@ -45844,10 +44612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:50</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44166.75405092593</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -45919,10 +44685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:46</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44166.75400462963</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -45982,10 +44746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:44</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44166.75398148148</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46061,10 +44823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:44</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44166.75398148148</v>
       </c>
       <c r="I629" t="n">
         <v>1</v>
@@ -46140,10 +44900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:43</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44166.7539699074</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46215,10 +44973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:27</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44166.75378472222</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46294,10 +45050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:27</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44166.75378472222</v>
       </c>
       <c r="I632" t="n">
         <v>2</v>
@@ -46365,10 +45119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:24</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44166.75375</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
